--- a/Productos.xlsx
+++ b/Productos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Planificador_comidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C0D3D-A7D9-4E0C-BEFD-EDA681B2EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC1F10F-1325-45AA-A249-97FAE84A9E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4545" yWindow="4530" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>producto</t>
   </si>
@@ -157,6 +157,33 @@
   </si>
   <si>
     <t>paquete de ensalada hojas verdes oscuro</t>
+  </si>
+  <si>
+    <t>zanahoria</t>
+  </si>
+  <si>
+    <t>verdura</t>
+  </si>
+  <si>
+    <t>puerro</t>
+  </si>
+  <si>
+    <t>tomates cherry</t>
+  </si>
+  <si>
+    <t>calabaza</t>
+  </si>
+  <si>
+    <t>bolsa de falafel</t>
+  </si>
+  <si>
+    <t>cacahuete en polvo</t>
+  </si>
+  <si>
+    <t>quesitos light</t>
+  </si>
+  <si>
+    <t>congelados</t>
   </si>
 </sst>
 </file>
@@ -498,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,8 +816,61 @@
         <v>42</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
